--- a/СМіП/лабиСтатистичне_моделювання.xlsx
+++ b/СМіП/лабиСтатистичне_моделювання.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trock\Desktop\SMT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trock\Desktop\SMT\СМіП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7678EA-881D-4F0E-8C92-7EE6A61173AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93622D-AB54-476F-B4DB-4AD38B771ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{C6454709-9D82-4E43-897D-8CDF4628B8E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{C6454709-9D82-4E43-897D-8CDF4628B8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="ЛР1" sheetId="1" r:id="rId1"/>
     <sheet name="ЛР2" sheetId="2" r:id="rId2"/>
     <sheet name="ЛР3" sheetId="3" r:id="rId3"/>
+    <sheet name="ЛР4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +36,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>№</t>
   </si>
@@ -271,12 +294,48 @@
   <si>
     <t>Заробітна плата Y, грн.</t>
   </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>Y*X1</t>
+  </si>
+  <si>
+    <t>Y*X2</t>
+  </si>
+  <si>
+    <t>X1^2</t>
+  </si>
+  <si>
+    <t>X2^2</t>
+  </si>
+  <si>
+    <t>X1*X2</t>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>Дельта_0</t>
+  </si>
+  <si>
+    <t>Дельта_1</t>
+  </si>
+  <si>
+    <t>Дельта_2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,6 +384,21 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -347,7 +421,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,6 +447,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3623,7 +3702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01BFC95-FB62-454A-8DFD-E6026B23C1F3}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+    <sheetView zoomScale="69" workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -4472,4 +4551,594 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892A349-E08C-4EF9-852D-1395A2DE412E}">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="C2" s="14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D2" s="14">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <f>B2*C2</f>
+        <v>638.88</v>
+      </c>
+      <c r="F2">
+        <f>B2*D2</f>
+        <v>435.59999999999997</v>
+      </c>
+      <c r="G2">
+        <f>C2^2</f>
+        <v>309.76000000000005</v>
+      </c>
+      <c r="H2">
+        <f>D2^2</f>
+        <v>144</v>
+      </c>
+      <c r="I2">
+        <f>C2*D2</f>
+        <v>211.20000000000002</v>
+      </c>
+      <c r="J2">
+        <f>$N$2+$M$2*C2+$L$2*D2</f>
+        <v>34.176067904575731</v>
+      </c>
+      <c r="L2" cm="1">
+        <f t="array" ref="L2:N2">LINEST(B2:B9, C2:D9)</f>
+        <v>-1.5224072962670834</v>
+      </c>
+      <c r="M2">
+        <v>0.52906632470467962</v>
+      </c>
+      <c r="N2">
+        <v>43.133388144978369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>31.9</v>
+      </c>
+      <c r="C3" s="14">
+        <v>20.8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>13.5</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="0">B3*C3</f>
+        <v>663.52</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="1">B3*D3</f>
+        <v>430.65</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="2">C3^2</f>
+        <v>432.64000000000004</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H9" si="3">D3^2</f>
+        <v>182.25</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="4">C3*D3</f>
+        <v>280.8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="5">$N$2+$M$2*C3+$L$2*D3</f>
+        <v>33.585469199230083</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14">
+        <v>30.4</v>
+      </c>
+      <c r="C4" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>437.76</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>431.67999999999995</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>207.36</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>201.64</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
+        <v>204.48</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>29.133759613733172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="14">
+        <v>36.1</v>
+      </c>
+      <c r="C5" s="14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D5" s="14">
+        <v>11.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>653.41000000000008</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>418.76</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>327.61000000000007</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>134.56</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>209.96</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>35.049563985434901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>652.71999999999991</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>416.55999999999995</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>396.00999999999993</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>161.29</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
+        <v>252.72999999999996</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>34.327235344009537</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14">
+        <v>29.5</v>
+      </c>
+      <c r="C7" s="14">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>501.5</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>424.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>207.36</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
+        <v>244.8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="5"/>
+        <v>30.204850598711925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="14">
+        <v>23.2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>11.7</v>
+      </c>
+      <c r="D8" s="14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>271.44</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>426.87999999999994</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>136.88999999999999</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>338.55999999999995</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
+        <v>215.27999999999997</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="5"/>
+        <v>21.311169892708786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="14">
+        <v>20.9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14">
+        <v>15.8</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>167.2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>330.21999999999997</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>249.64000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
+        <v>126.4</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>23.311883461595887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <f>SUM(B2:B9)</f>
+        <v>241.1</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:J10" si="6">SUM(C2:C9)</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="6"/>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="6"/>
+        <v>3986.43</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="6"/>
+        <v>3315.15</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="6"/>
+        <v>2163.27</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="6"/>
+        <v>1619.3</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="6"/>
+        <v>1745.65</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>127.5</v>
+      </c>
+      <c r="N12">
+        <v>112.6</v>
+      </c>
+      <c r="P12">
+        <v>241.1</v>
+      </c>
+      <c r="Q12">
+        <v>127.5</v>
+      </c>
+      <c r="R12">
+        <v>112.6</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>241.1</v>
+      </c>
+      <c r="V12">
+        <v>112.6</v>
+      </c>
+      <c r="X12">
+        <v>8</v>
+      </c>
+      <c r="Y12">
+        <v>127.5</v>
+      </c>
+      <c r="Z12">
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="L13">
+        <v>127.5</v>
+      </c>
+      <c r="M13">
+        <v>2163.27</v>
+      </c>
+      <c r="N13">
+        <v>1745.65</v>
+      </c>
+      <c r="P13">
+        <v>3986.43</v>
+      </c>
+      <c r="Q13">
+        <v>2163.27</v>
+      </c>
+      <c r="R13">
+        <v>1745.65</v>
+      </c>
+      <c r="T13">
+        <v>127.5</v>
+      </c>
+      <c r="U13">
+        <v>3986.43</v>
+      </c>
+      <c r="V13">
+        <v>1745.65</v>
+      </c>
+      <c r="X13">
+        <v>127.5</v>
+      </c>
+      <c r="Y13">
+        <v>2163.27</v>
+      </c>
+      <c r="Z13">
+        <v>3986.43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="L14">
+        <v>112.6</v>
+      </c>
+      <c r="M14">
+        <v>1745.65</v>
+      </c>
+      <c r="N14">
+        <v>1619.3</v>
+      </c>
+      <c r="P14">
+        <v>3315.15</v>
+      </c>
+      <c r="Q14">
+        <v>1745.65</v>
+      </c>
+      <c r="R14">
+        <v>1619.3</v>
+      </c>
+      <c r="T14">
+        <v>112.6</v>
+      </c>
+      <c r="U14">
+        <v>3315.15</v>
+      </c>
+      <c r="V14">
+        <v>1619.3</v>
+      </c>
+      <c r="X14">
+        <v>112.6</v>
+      </c>
+      <c r="Y14">
+        <v>1745.65</v>
+      </c>
+      <c r="Z14">
+        <v>3315.15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.45">
+      <c r="L16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16">
+        <f>MDETERM(L12:N14)</f>
+        <v>17035.187800000309</v>
+      </c>
+    </row>
+    <row r="17" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17">
+        <f>MDETERM(P12:R14)</f>
+        <v>734785.36749999702</v>
+      </c>
+      <c r="O17" t="s">
+        <v>15</v>
+      </c>
+      <c r="P17">
+        <f>M17/M16</f>
+        <v>43.133388144977403</v>
+      </c>
+    </row>
+    <row r="18" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L18" t="s">
+        <v>60</v>
+      </c>
+      <c r="M18">
+        <f>MDETERM(T12:V14)</f>
+        <v>9012.7442000001811</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <f>M18/M16</f>
+        <v>0.52906632470468085</v>
+      </c>
+    </row>
+    <row r="19" spans="12:16" x14ac:dyDescent="0.45">
+      <c r="L19" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19">
+        <f>MDETERM(X12:Z14)</f>
+        <v>-25934.494200000354</v>
+      </c>
+      <c r="O19" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19">
+        <f>M19/M16</f>
+        <v>-1.5224072962670763</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D9">
+    <sortCondition ref="A2:A9"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/СМіП/лабиСтатистичне_моделювання.xlsx
+++ b/СМіП/лабиСтатистичне_моделювання.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trock\Desktop\SMT\СМіП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE93622D-AB54-476F-B4DB-4AD38B771ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EBB84D-6654-49A1-9AC2-AA97A2F719B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{C6454709-9D82-4E43-897D-8CDF4628B8E6}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="4" xr2:uid="{C6454709-9D82-4E43-897D-8CDF4628B8E6}"/>
   </bookViews>
   <sheets>
     <sheet name="ЛР1" sheetId="1" r:id="rId1"/>
     <sheet name="ЛР2" sheetId="2" r:id="rId2"/>
     <sheet name="ЛР3" sheetId="3" r:id="rId3"/>
     <sheet name="ЛР4" sheetId="4" r:id="rId4"/>
+    <sheet name="ЛР5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="94">
   <si>
     <t>№</t>
   </si>
@@ -327,15 +328,111 @@
   <si>
     <t>Дельта_2</t>
   </si>
+  <si>
+    <t>номер під-ва</t>
+  </si>
+  <si>
+    <t>Чисельність робітників, тис осіб</t>
+  </si>
+  <si>
+    <t>Наявність обігових коштів, тис грн</t>
+  </si>
+  <si>
+    <t>Обсяг виробництва, тис шт</t>
+  </si>
+  <si>
+    <t>YX1​</t>
+  </si>
+  <si>
+    <t>YX2​</t>
+  </si>
+  <si>
+    <t>X1^2​</t>
+  </si>
+  <si>
+    <t>X2^2​</t>
+  </si>
+  <si>
+    <t>X1​X2​</t>
+  </si>
+  <si>
+    <t>Y^</t>
+  </si>
+  <si>
+    <t>Y-Y^</t>
+  </si>
+  <si>
+    <t>Разом</t>
+  </si>
+  <si>
+    <t>Середне</t>
+  </si>
+  <si>
+    <t>Дельта3</t>
+  </si>
+  <si>
+    <t>σx1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>σx2</t>
+  </si>
+  <si>
+    <t>ta2</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>σy</t>
+  </si>
+  <si>
+    <t>k1</t>
+  </si>
+  <si>
+    <t>β1</t>
+  </si>
+  <si>
+    <t>ryx1</t>
+  </si>
+  <si>
+    <t>k2</t>
+  </si>
+  <si>
+    <t>β2</t>
+  </si>
+  <si>
+    <t>ryx2</t>
+  </si>
+  <si>
+    <t>Fрозр</t>
+  </si>
+  <si>
+    <t>∆1</t>
+  </si>
+  <si>
+    <t>rx1x2</t>
+  </si>
+  <si>
+    <t>σзаг</t>
+  </si>
+  <si>
+    <t>∆2</t>
+  </si>
+  <si>
+    <t>RYX1X2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -399,6 +496,33 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -421,7 +545,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -442,17 +566,39 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -4305,20 +4451,20 @@
       <c r="M13" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="9">
@@ -4504,10 +4650,10 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
@@ -4519,10 +4665,10 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.45">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -4557,7 +4703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C892A349-E08C-4EF9-852D-1395A2DE412E}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -4567,34 +4713,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A1" s="12" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
       <c r="L1" t="s">
@@ -4608,16 +4754,16 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A2" s="12">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="10">
         <v>36.299999999999997</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="10">
         <v>17.600000000000001</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="10">
         <v>12</v>
       </c>
       <c r="E2">
@@ -4656,16 +4802,16 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A3" s="12">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="10">
         <v>31.9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="10">
         <v>20.8</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="10">
         <v>13.5</v>
       </c>
       <c r="E3">
@@ -4694,16 +4840,16 @@
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A4" s="12">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="10">
         <v>30.4</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="10">
         <v>14.4</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="10">
         <v>14.2</v>
       </c>
       <c r="E4">
@@ -4732,16 +4878,16 @@
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A5" s="12">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="10">
         <v>36.1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>11.6</v>
       </c>
       <c r="E5">
@@ -4770,16 +4916,16 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A6" s="12">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="10">
         <v>32.799999999999997</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>19.899999999999999</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>12.7</v>
       </c>
       <c r="E6">
@@ -4808,16 +4954,16 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A7" s="12">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="10">
         <v>29.5</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>17</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="10">
         <v>14.4</v>
       </c>
       <c r="E7">
@@ -4846,16 +4992,16 @@
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A8" s="12">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="10">
         <v>23.2</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="10">
         <v>11.7</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="10">
         <v>18.399999999999999</v>
       </c>
       <c r="E8">
@@ -4884,16 +5030,16 @@
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.45">
-      <c r="A9" s="12">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="10">
         <v>20.9</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="10">
         <v>15.8</v>
       </c>
       <c r="E9">
@@ -5141,4 +5287,2056 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C4660E-B09C-4B66-8E8A-7F5AFFC18A2A}">
+  <dimension ref="A1:AM35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:39" ht="81" x14ac:dyDescent="0.45">
+      <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>12</v>
+      </c>
+      <c r="C2" s="14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D2" s="14">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E2" s="18">
+        <f>D2*B2</f>
+        <v>435.59999999999997</v>
+      </c>
+      <c r="F2" s="19">
+        <f>D2*C2</f>
+        <v>638.88</v>
+      </c>
+      <c r="G2" s="19">
+        <f>B2*B2</f>
+        <v>144</v>
+      </c>
+      <c r="H2" s="19">
+        <f>C2*C2</f>
+        <v>309.76000000000005</v>
+      </c>
+      <c r="I2" s="19">
+        <f>D2*D2</f>
+        <v>1317.6899999999998</v>
+      </c>
+      <c r="J2" s="19">
+        <f>B2*C2</f>
+        <v>211.20000000000002</v>
+      </c>
+      <c r="K2" s="18">
+        <f>$E$19+B2*$E$20+C2*$E$21</f>
+        <v>34.176067904574907</v>
+      </c>
+      <c r="L2" s="17">
+        <f>D2-K2</f>
+        <v>2.12393209542509</v>
+      </c>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+      <c r="AJ2" s="17"/>
+      <c r="AK2" s="17"/>
+      <c r="AL2" s="17"/>
+      <c r="AM2" s="17"/>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>13.5</v>
+      </c>
+      <c r="C3" s="14">
+        <v>20.8</v>
+      </c>
+      <c r="D3" s="14">
+        <v>31.9</v>
+      </c>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E9" si="0">D3*B3</f>
+        <v>430.65</v>
+      </c>
+      <c r="F3" s="19">
+        <f t="shared" ref="F3:F9" si="1">D3*C3</f>
+        <v>663.52</v>
+      </c>
+      <c r="G3" s="19">
+        <f t="shared" ref="G3:I9" si="2">B3*B3</f>
+        <v>182.25</v>
+      </c>
+      <c r="H3" s="19">
+        <f t="shared" si="2"/>
+        <v>432.64000000000004</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="2"/>
+        <v>1017.6099999999999</v>
+      </c>
+      <c r="J3" s="19">
+        <f t="shared" ref="J3:J9" si="3">B3*C3</f>
+        <v>280.8</v>
+      </c>
+      <c r="K3" s="18">
+        <f t="shared" ref="K3:K9" si="4">$E$19+B3*$E$20+C3*$E$21</f>
+        <v>33.585469199229216</v>
+      </c>
+      <c r="L3" s="17">
+        <f t="shared" ref="L3:L9" si="5">D3-K3</f>
+        <v>-1.6854691992292175</v>
+      </c>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+      <c r="AJ3" s="17"/>
+      <c r="AK3" s="17"/>
+      <c r="AL3" s="17"/>
+      <c r="AM3" s="17"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A4" s="13">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>14.2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="D4" s="14">
+        <v>30.4</v>
+      </c>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>431.67999999999995</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="1"/>
+        <v>437.76</v>
+      </c>
+      <c r="G4" s="19">
+        <f t="shared" si="2"/>
+        <v>201.64</v>
+      </c>
+      <c r="H4" s="19">
+        <f t="shared" si="2"/>
+        <v>207.36</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="2"/>
+        <v>924.16</v>
+      </c>
+      <c r="J4" s="19">
+        <f t="shared" si="3"/>
+        <v>204.48</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" si="4"/>
+        <v>29.133759613732352</v>
+      </c>
+      <c r="L4" s="17">
+        <f t="shared" si="5"/>
+        <v>1.266240386267647</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="17"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+      <c r="AJ4" s="17"/>
+      <c r="AK4" s="17"/>
+      <c r="AL4" s="17"/>
+      <c r="AM4" s="17"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A5" s="13">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13">
+        <v>11.6</v>
+      </c>
+      <c r="C5" s="14">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D5" s="14">
+        <v>36.1</v>
+      </c>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>418.76</v>
+      </c>
+      <c r="F5" s="19">
+        <f t="shared" si="1"/>
+        <v>653.41000000000008</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="2"/>
+        <v>134.56</v>
+      </c>
+      <c r="H5" s="19">
+        <f t="shared" si="2"/>
+        <v>327.61000000000007</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="2"/>
+        <v>1303.21</v>
+      </c>
+      <c r="J5" s="19">
+        <f t="shared" si="3"/>
+        <v>209.96</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="4"/>
+        <v>35.049563985434077</v>
+      </c>
+      <c r="L5" s="17">
+        <f t="shared" si="5"/>
+        <v>1.0504360145659248</v>
+      </c>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+      <c r="AJ5" s="17"/>
+      <c r="AK5" s="17"/>
+      <c r="AL5" s="17"/>
+      <c r="AM5" s="17"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A6" s="13">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13">
+        <v>12.7</v>
+      </c>
+      <c r="C6" s="14">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D6" s="14">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>416.55999999999995</v>
+      </c>
+      <c r="F6" s="19">
+        <f t="shared" si="1"/>
+        <v>652.71999999999991</v>
+      </c>
+      <c r="G6" s="19">
+        <f t="shared" si="2"/>
+        <v>161.29</v>
+      </c>
+      <c r="H6" s="19">
+        <f t="shared" si="2"/>
+        <v>396.00999999999993</v>
+      </c>
+      <c r="I6" s="19">
+        <f t="shared" si="2"/>
+        <v>1075.8399999999999</v>
+      </c>
+      <c r="J6" s="19">
+        <f t="shared" si="3"/>
+        <v>252.72999999999996</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="4"/>
+        <v>34.327235344008685</v>
+      </c>
+      <c r="L6" s="17">
+        <f t="shared" si="5"/>
+        <v>-1.5272353440086874</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+      <c r="AJ6" s="17"/>
+      <c r="AK6" s="17"/>
+      <c r="AL6" s="17"/>
+      <c r="AM6" s="17"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A7" s="13">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>14.4</v>
+      </c>
+      <c r="C7" s="14">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14">
+        <v>29.5</v>
+      </c>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>424.8</v>
+      </c>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>501.5</v>
+      </c>
+      <c r="G7" s="19">
+        <f t="shared" si="2"/>
+        <v>207.36</v>
+      </c>
+      <c r="H7" s="19">
+        <f t="shared" si="2"/>
+        <v>289</v>
+      </c>
+      <c r="I7" s="19">
+        <f t="shared" si="2"/>
+        <v>870.25</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="3"/>
+        <v>244.8</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="4"/>
+        <v>30.204850598711079</v>
+      </c>
+      <c r="L7" s="17">
+        <f t="shared" si="5"/>
+        <v>-0.70485059871107936</v>
+      </c>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A8" s="13">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="C8" s="14">
+        <v>11.7</v>
+      </c>
+      <c r="D8" s="14">
+        <v>23.2</v>
+      </c>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>426.87999999999994</v>
+      </c>
+      <c r="F8" s="19">
+        <f t="shared" si="1"/>
+        <v>271.44</v>
+      </c>
+      <c r="G8" s="19">
+        <f t="shared" si="2"/>
+        <v>338.55999999999995</v>
+      </c>
+      <c r="H8" s="19">
+        <f t="shared" si="2"/>
+        <v>136.88999999999999</v>
+      </c>
+      <c r="I8" s="19">
+        <f t="shared" si="2"/>
+        <v>538.24</v>
+      </c>
+      <c r="J8" s="19">
+        <f t="shared" si="3"/>
+        <v>215.27999999999997</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="4"/>
+        <v>21.311169892707952</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" si="5"/>
+        <v>1.8888301072920477</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+      <c r="AJ8" s="17"/>
+      <c r="AK8" s="17"/>
+      <c r="AL8" s="17"/>
+      <c r="AM8" s="17"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A9" s="13">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13">
+        <v>15.8</v>
+      </c>
+      <c r="C9" s="14">
+        <v>8</v>
+      </c>
+      <c r="D9" s="14">
+        <v>20.9</v>
+      </c>
+      <c r="E9" s="18">
+        <f t="shared" si="0"/>
+        <v>330.21999999999997</v>
+      </c>
+      <c r="F9" s="19">
+        <f t="shared" si="1"/>
+        <v>167.2</v>
+      </c>
+      <c r="G9" s="19">
+        <f t="shared" si="2"/>
+        <v>249.64000000000001</v>
+      </c>
+      <c r="H9" s="19">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="I9" s="19">
+        <f t="shared" si="2"/>
+        <v>436.80999999999995</v>
+      </c>
+      <c r="J9" s="19">
+        <f t="shared" si="3"/>
+        <v>126.4</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="4"/>
+        <v>23.311883461595098</v>
+      </c>
+      <c r="L9" s="17">
+        <f t="shared" si="5"/>
+        <v>-2.4118834615950995</v>
+      </c>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17"/>
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17"/>
+      <c r="AM9" s="17"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+      <c r="AJ10" s="17"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="17"/>
+      <c r="AM10" s="17"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+      <c r="AJ11" s="17"/>
+      <c r="AK11" s="17"/>
+      <c r="AL11" s="17"/>
+      <c r="AM11" s="17"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="17">
+        <f>SUM(B2:B9)</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="C12" s="17">
+        <f t="shared" ref="C12:L12" si="6">SUM(C2:C9)</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="D12" s="17">
+        <f t="shared" si="6"/>
+        <v>241.1</v>
+      </c>
+      <c r="E12" s="17">
+        <f t="shared" si="6"/>
+        <v>3315.15</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="6"/>
+        <v>3986.43</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="6"/>
+        <v>1619.3</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" si="6"/>
+        <v>2163.27</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="6"/>
+        <v>7483.8099999999995</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="6"/>
+        <v>1745.65</v>
+      </c>
+      <c r="K12" s="17">
+        <f t="shared" si="6"/>
+        <v>241.0999999999934</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="6"/>
+        <v>6.6258110109629342E-12</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17"/>
+      <c r="AA12" s="17"/>
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+      <c r="AJ12" s="17"/>
+      <c r="AK12" s="17"/>
+      <c r="AL12" s="17"/>
+      <c r="AM12" s="17"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="17">
+        <f>B12/$A$9</f>
+        <v>14.075000000000001</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" ref="C13:L13" si="7">C12/$A$9</f>
+        <v>15.937500000000002</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="7"/>
+        <v>30.137499999999999</v>
+      </c>
+      <c r="E13" s="17">
+        <f t="shared" si="7"/>
+        <v>414.39375000000001</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="7"/>
+        <v>498.30374999999998</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="7"/>
+        <v>202.41249999999999</v>
+      </c>
+      <c r="H13" s="17">
+        <f t="shared" si="7"/>
+        <v>270.40875</v>
+      </c>
+      <c r="I13" s="17">
+        <f t="shared" si="7"/>
+        <v>935.47624999999994</v>
+      </c>
+      <c r="J13" s="17">
+        <f t="shared" si="7"/>
+        <v>218.20625000000001</v>
+      </c>
+      <c r="K13" s="17">
+        <f t="shared" si="7"/>
+        <v>30.137499999999175</v>
+      </c>
+      <c r="L13" s="17">
+        <f t="shared" si="7"/>
+        <v>8.2822637637036678E-13</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+      <c r="AJ13" s="17"/>
+      <c r="AK13" s="17"/>
+      <c r="AL13" s="17"/>
+      <c r="AM13" s="17"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="17"/>
+      <c r="AA14" s="17"/>
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+      <c r="AJ14" s="17"/>
+      <c r="AK14" s="17"/>
+      <c r="AL14" s="17"/>
+      <c r="AM14" s="17"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A15" s="17">
+        <f>$D$12</f>
+        <v>241.1</v>
+      </c>
+      <c r="B15" s="17">
+        <f>$A$9</f>
+        <v>8</v>
+      </c>
+      <c r="C15" s="17">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="D15" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17">
+        <f>$D$12</f>
+        <v>241.1</v>
+      </c>
+      <c r="G15" s="17">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="H15" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17">
+        <f>$A$9</f>
+        <v>8</v>
+      </c>
+      <c r="K15" s="17">
+        <f>$D$12</f>
+        <v>241.1</v>
+      </c>
+      <c r="L15" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17">
+        <f>$A$9</f>
+        <v>8</v>
+      </c>
+      <c r="O15" s="17">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="P15" s="17">
+        <f>$D$12</f>
+        <v>241.1</v>
+      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="17"/>
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="17"/>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+      <c r="AJ15" s="17"/>
+      <c r="AK15" s="17"/>
+      <c r="AL15" s="17"/>
+      <c r="AM15" s="17"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A16" s="17">
+        <f>$E$12</f>
+        <v>3315.15</v>
+      </c>
+      <c r="B16" s="20">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="C16" s="17">
+        <f>$G$12</f>
+        <v>1619.3</v>
+      </c>
+      <c r="D16" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17">
+        <f>$E$12</f>
+        <v>3315.15</v>
+      </c>
+      <c r="G16" s="17">
+        <f>$G$12</f>
+        <v>1619.3</v>
+      </c>
+      <c r="H16" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="K16" s="17">
+        <f>$E$12</f>
+        <v>3315.15</v>
+      </c>
+      <c r="L16" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="20">
+        <f>$B$12</f>
+        <v>112.60000000000001</v>
+      </c>
+      <c r="O16" s="17">
+        <f>$G$12</f>
+        <v>1619.3</v>
+      </c>
+      <c r="P16" s="17">
+        <f>$E$12</f>
+        <v>3315.15</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="17"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A17" s="17">
+        <f>$F$12</f>
+        <v>3986.43</v>
+      </c>
+      <c r="B17" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="C17" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="D17" s="17">
+        <f>$H$12</f>
+        <v>2163.27</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17">
+        <f>$F$12</f>
+        <v>3986.43</v>
+      </c>
+      <c r="G17" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="H17" s="17">
+        <f>$H$12</f>
+        <v>2163.27</v>
+      </c>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="K17" s="17">
+        <f>$F$12</f>
+        <v>3986.43</v>
+      </c>
+      <c r="L17" s="17">
+        <f>$H$12</f>
+        <v>2163.27</v>
+      </c>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17">
+        <f>$C$12</f>
+        <v>127.50000000000001</v>
+      </c>
+      <c r="O17" s="17">
+        <f>$J$12</f>
+        <v>1745.65</v>
+      </c>
+      <c r="P17" s="17">
+        <f>$F$12</f>
+        <v>3986.43</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+      <c r="Z17" s="17"/>
+      <c r="AA17" s="17"/>
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="17"/>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+      <c r="AJ17" s="17"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="17"/>
+      <c r="AA18" s="17"/>
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="17"/>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+      <c r="AJ18" s="17"/>
+      <c r="AK18" s="17"/>
+      <c r="AL18" s="17"/>
+      <c r="AM18" s="17"/>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="17">
+        <f>MDETERM(B15:D17)</f>
+        <v>17035.187799999876</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="17">
+        <f>B20/B19</f>
+        <v>43.133388144977772</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+      <c r="AJ19" s="17"/>
+      <c r="AK19" s="17"/>
+      <c r="AL19" s="17"/>
+      <c r="AM19" s="17"/>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A20" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17">
+        <f>MDETERM(F15:H17)</f>
+        <v>734785.36749998468</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="17">
+        <f>B21/B19</f>
+        <v>-1.5224072962670918</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+      <c r="AJ20" s="17"/>
+      <c r="AK20" s="17"/>
+      <c r="AL20" s="17"/>
+      <c r="AM20" s="17"/>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A21" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="17">
+        <f>MDETERM(J15:L17)</f>
+        <v>-25934.494199999961</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="17">
+        <f>B22/B19</f>
+        <v>0.5290663247046723</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+      <c r="AJ21" s="17"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="17"/>
+      <c r="AM21" s="17"/>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A22" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="17">
+        <f>MDETERM(N15:P17)</f>
+        <v>9012.7441999998064</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="17"/>
+      <c r="AB22" s="17"/>
+      <c r="AC22" s="17"/>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+      <c r="AJ22" s="17"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="17"/>
+      <c r="AM22" s="17"/>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+      <c r="AJ23" s="17"/>
+      <c r="AK23" s="17"/>
+      <c r="AL23" s="17"/>
+      <c r="AM23" s="17"/>
+    </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="17">
+        <f>SQRT(G13-POWER(B13,2))</f>
+        <v>2.0753011829611534</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="17">
+        <f>ABS(E20)*(B24*SQRT(1-B29^2)*SQRT(7-3-1))/(B26*SQRT(1-B30^2))</f>
+        <v>2.2506166362999229</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="17">
+        <f>E20*(B13)/(D13)</f>
+        <v>-0.71100398821930555</v>
+      </c>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+      <c r="Z24" s="17"/>
+      <c r="AA24" s="17"/>
+      <c r="AB24" s="17"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+      <c r="AJ24" s="17"/>
+      <c r="AK24" s="17"/>
+      <c r="AL24" s="17"/>
+      <c r="AM24" s="17"/>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A25" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="17">
+        <f>SQRT(H13-POWER(C13,2))</f>
+        <v>4.0502893415162253</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="17">
+        <f>ABS(E21)*(B25*SQRT(1-B29^2)*SQRT(7-3-1))/(B26*SQRT(1-B30^2))</f>
+        <v>1.5264609653585459</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="17">
+        <f>E21*(C13)/(D13)</f>
+        <v>0.27978414101968369</v>
+      </c>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+      <c r="Z25" s="17"/>
+      <c r="AA25" s="17"/>
+      <c r="AB25" s="17"/>
+      <c r="AC25" s="17"/>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+      <c r="AJ25" s="17"/>
+      <c r="AK25" s="17"/>
+      <c r="AL25" s="17"/>
+      <c r="AM25" s="17"/>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A26" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="17">
+        <f>SQRT(I13-POWER(D13,2))</f>
+        <v>5.2160659265388842</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="17">
+        <f>3-1</f>
+        <v>2</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="17">
+        <f>E20*(B24)/(B26)</f>
+        <v>-0.60571582249694444</v>
+      </c>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="17"/>
+      <c r="AA26" s="17"/>
+      <c r="AB26" s="17"/>
+      <c r="AC26" s="17"/>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+      <c r="AJ26" s="17"/>
+      <c r="AK26" s="17"/>
+      <c r="AL26" s="17"/>
+      <c r="AM26" s="17"/>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A27" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="17">
+        <f>(E13-D13*B13)/(B26*B24)</f>
+        <v>-0.90454003784503878</v>
+      </c>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="17">
+        <f>8-2</f>
+        <v>6</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="17">
+        <f>E21*(B25)/(B26)</f>
+        <v>0.41082143632498086</v>
+      </c>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="17"/>
+      <c r="AA27" s="17"/>
+      <c r="AB27" s="17"/>
+      <c r="AC27" s="17"/>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+      <c r="AJ27" s="17"/>
+      <c r="AK27" s="17"/>
+      <c r="AL27" s="17"/>
+      <c r="AM27" s="17"/>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A28" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="17">
+        <f>(F13-D13*C13)/(B26*B25)</f>
+        <v>0.85140836625915706</v>
+      </c>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="17">
+        <f>(B26^2)/(E29)*(E27)/(E26)</f>
+        <v>126.6555377005613</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="17">
+        <f>(H26*B27)/B30^2</f>
+        <v>0.61035078578880986</v>
+      </c>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17"/>
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17"/>
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17"/>
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A29" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="17">
+        <f>(J13-B13*C13)/(B25*B24)</f>
+        <v>-0.72738223696707016</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="17">
+        <f>L2^2/A8</f>
+        <v>0.64444107799668771</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="H29" s="17">
+        <f>(H27*B28)/B30^2</f>
+        <v>0.3896492142111872</v>
+      </c>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17"/>
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17"/>
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17"/>
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17"/>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="17">
+        <f>SQRT((POWER(B27,2)+POWER(B28,2)-2*B27*B28*B29)/(1-POWER(B29,2)))</f>
+        <v>0.94745502317018715</v>
+      </c>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+      <c r="Z30" s="17"/>
+      <c r="AA30" s="17"/>
+      <c r="AB30" s="17"/>
+      <c r="AC30" s="17"/>
+      <c r="AD30" s="17"/>
+      <c r="AE30" s="17"/>
+      <c r="AF30" s="17"/>
+      <c r="AG30" s="17"/>
+      <c r="AH30" s="17"/>
+      <c r="AI30" s="17"/>
+      <c r="AJ30" s="17"/>
+      <c r="AK30" s="17"/>
+      <c r="AL30" s="17"/>
+      <c r="AM30" s="17"/>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="17">
+        <f>B30^2</f>
+        <v>0.89767102093041984</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
+      <c r="AG31" s="17"/>
+      <c r="AH31" s="17"/>
+      <c r="AI31" s="17"/>
+      <c r="AJ31" s="17"/>
+      <c r="AK31" s="17"/>
+      <c r="AL31" s="17"/>
+      <c r="AM31" s="17"/>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+      <c r="AG32" s="17"/>
+      <c r="AH32" s="17"/>
+      <c r="AI32" s="17"/>
+      <c r="AJ32" s="17"/>
+      <c r="AK32" s="17"/>
+      <c r="AL32" s="17"/>
+      <c r="AM32" s="17"/>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17"/>
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
+      <c r="AG33" s="17"/>
+      <c r="AH33" s="17"/>
+      <c r="AI33" s="17"/>
+      <c r="AJ33" s="17"/>
+      <c r="AK33" s="17"/>
+      <c r="AL33" s="17"/>
+      <c r="AM33" s="17"/>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+      <c r="Z34" s="17"/>
+      <c r="AA34" s="17"/>
+      <c r="AB34" s="17"/>
+      <c r="AC34" s="17"/>
+      <c r="AD34" s="17"/>
+      <c r="AE34" s="17"/>
+      <c r="AF34" s="17"/>
+      <c r="AG34" s="17"/>
+      <c r="AH34" s="17"/>
+      <c r="AI34" s="17"/>
+      <c r="AJ34" s="17"/>
+      <c r="AK34" s="17"/>
+      <c r="AL34" s="17"/>
+      <c r="AM34" s="17"/>
+    </row>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.45">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+      <c r="Z35" s="17"/>
+      <c r="AA35" s="17"/>
+      <c r="AB35" s="17"/>
+      <c r="AC35" s="17"/>
+      <c r="AD35" s="17"/>
+      <c r="AE35" s="17"/>
+      <c r="AF35" s="17"/>
+      <c r="AG35" s="17"/>
+      <c r="AH35" s="17"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="17"/>
+      <c r="AK35" s="17"/>
+      <c r="AL35" s="17"/>
+      <c r="AM35" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>